--- a/202304/01_基本設計書/【勤怠】テーブル定義書(サンプル).XLSX
+++ b/202304/01_基本設計書/【勤怠】テーブル定義書(サンプル).XLSX
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF30D4-6AA8-4A6D-BA8E-13A2171AF5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202304\202304\01_基本設計書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182AB04B-5832-4A02-AF0C-2767B1D87548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -15,10 +20,12 @@
     <sheet name="M_DEPT" sheetId="5" r:id="rId5"/>
     <sheet name="M_ATTENDANCE_YM" sheetId="6" r:id="rId6"/>
     <sheet name="M_STATUS" sheetId="7" r:id="rId7"/>
+    <sheet name="M_CODE" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">M_ATTENDANCE_YM!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">M_CALENDAR!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">M_CODE!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">M_DEPT!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">M_STATUS!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">T_ATTENDANCE!$1:$6</definedName>
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="124">
   <si>
     <t>システム名</t>
   </si>
@@ -537,6 +544,174 @@
   </si>
   <si>
     <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODE_KBN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODE_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CODE_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コードID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コード名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>開発１部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発２部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発３部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発４部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発５部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コードマスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コード区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理削除</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>論理削除</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UPDATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SET</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>社員情報</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -547,7 +722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -609,6 +784,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -999,14 +1181,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,17 +1211,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1059,15 +1236,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1092,7 +1263,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1137,13 +1308,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1552,117 +1725,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" style="65"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="54"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="64">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="53">
         <v>1</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="64">
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="53">
         <v>2</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="64">
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="53">
         <v>3</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="64">
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="53">
         <v>4</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="64">
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="53">
         <v>5</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="64">
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="53">
         <v>6</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="61"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="64"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="64"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1680,418 +1854,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="42">
         <v>43996</v>
       </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15">
         <v>100</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15">
         <v>8</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="17"/>
       <c r="O9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="19">
-        <v>10</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15">
+        <v>10</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>0</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32">
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15">
         <v>0</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="19">
-        <v>10</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+      <c r="L16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+      <c r="L17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="20"/>
+      <c r="L21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2106,512 +2336,513 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE93C6-8427-49C5-BF42-CDDECB2528F1}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="42">
         <v>43996</v>
       </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15">
         <v>5</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>4</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>4</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>2</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15">
         <v>200</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>10</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>11</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="19">
-        <v>10</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32" t="s">
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>12</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>13</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="19">
-        <v>10</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2626,401 +2857,402 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088153E1-3D0E-429D-B7CD-3031D56C3B99}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="13" style="67" customWidth="1"/>
+    <col min="12" max="12" width="13" style="56" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="42">
         <v>43996</v>
       </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="L6" s="68"/>
-      <c r="O6" s="69"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="J6" s="37"/>
+      <c r="L6" s="57"/>
+      <c r="O6" s="58"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="70">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>2</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="C8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="44">
         <v>2</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="72"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32">
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="32">
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15">
         <v>0</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="19">
-        <v>10</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="19">
-        <v>10</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="O16" s="46"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3035,369 +3267,372 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF8F0EC-E53B-43F7-9269-04FD6361ACC3}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="42">
         <v>43996</v>
       </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="C8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="44">
         <v>100</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32">
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3412,373 +3647,374 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74DD2A-97C4-43BD-933B-830F65CBE11A}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="42">
         <v>43996</v>
       </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
         <v>7</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32">
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3793,371 +4029,868 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8427E8D5-5CFC-4AAE-AD7E-D94DD8AB6A75}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="42">
         <v>43996</v>
       </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15">
         <v>100</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="32">
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12
+テーブル定義書</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A8BA9E-7CE2-49DD-9799-4FB902B62E5E}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.9296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="42">
+        <v>43996</v>
+      </c>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <f t="shared" ref="A8:A14" si="0">ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="O8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="44">
+        <v>100</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="61">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="61">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="61">
+        <v>9</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
